--- a/data/georgia_census/samegrelo/zugdidi/age_dependency.xlsx
+++ b/data/georgia_census/samegrelo/zugdidi/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C48B0E2A-A871-4AC2-9FC1-02FDE5142672}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D5D5DB-D397-4414-8148-993462D7206E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D373EEC6-6E56-415D-97C8-9C06319867B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46EB0DA6-EFE8-4435-9AA9-421361319FE6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4F9368C-9924-44EA-AB14-ACBD78D04E59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1540B7C4-7FA9-4D57-BD7A-FDD359C33401}"/>
 </file>